--- a/팀PJ_WBS/토이스토리 PJ_멘토링 2차/토이스토리 PJ WBS.xlsx
+++ b/팀PJ_WBS/토이스토리 PJ_멘토링 2차/토이스토리 PJ WBS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>PROJECT TIMELINE TEMPLATE</t>
   </si>
@@ -662,7 +662,13 @@
     <t>발사믹 상세 페이지 설계</t>
   </si>
   <si>
-    <t>발사믹 상세 페이지 통합, PDF 변환</t>
+    <t xml:space="preserve">공통영역(상,하단)  구성 설계 </t>
+  </si>
+  <si>
+    <t>인덱스 페이지(로딩창) 설계</t>
+  </si>
+  <si>
+    <t>윤철</t>
   </si>
   <si>
     <t>개발</t>
@@ -756,9 +762,6 @@
       </rPr>
       <t>구현</t>
     </r>
-  </si>
-  <si>
-    <t>윤철</t>
   </si>
   <si>
     <r>
@@ -1302,7 +1305,7 @@
       <name val="Dotum"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1347,6 +1350,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFEF2CB"/>
         <bgColor rgb="FFFEF2CB"/>
       </patternFill>
@@ -1701,7 +1710,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1853,10 +1862,15 @@
     <xf borderId="34" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="26" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="23" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="26" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="8" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="23" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="24" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1869,13 +1883,12 @@
     </xf>
     <xf borderId="31" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="32" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="8" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="33" fillId="8" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="24" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="25" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="8" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="8" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="8" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="26" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1900,18 +1913,15 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="25" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="26" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="10" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="26" fillId="10" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="30" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="30" fillId="10" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -2635,7 +2645,7 @@
       <c r="F16" s="54"/>
       <c r="G16" s="52"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="53"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="54"/>
       <c r="K16" s="52"/>
       <c r="L16" s="52"/>
@@ -2655,13 +2665,13 @@
       <c r="D17" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="78" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
-      <c r="I17" s="78"/>
+      <c r="I17" s="77"/>
       <c r="J17" s="54"/>
       <c r="K17" s="52"/>
       <c r="L17" s="52"/>
@@ -2681,14 +2691,14 @@
       <c r="D18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="77" t="s">
-        <v>25</v>
+      <c r="E18" s="78" t="s">
+        <v>33</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="50"/>
       <c r="K18" s="52"/>
       <c r="L18" s="52"/>
       <c r="M18" s="52"/>
@@ -2697,16 +2707,20 @@
       <c r="P18" s="53"/>
       <c r="R18" s="52"/>
       <c r="S18" s="52"/>
-      <c r="T18" s="57"/>
+      <c r="T18" s="79"/>
       <c r="U18" s="53"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="29"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="54"/>
+      <c r="D19" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="81"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
       <c r="I19" s="53"/>
@@ -2725,9 +2739,9 @@
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="63"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="66"/>
       <c r="G20" s="67"/>
       <c r="H20" s="67"/>
@@ -2750,26 +2764,26 @@
         <v>3.0</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
       <c r="I21" s="74"/>
       <c r="J21" s="75"/>
       <c r="K21" s="73"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="86"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="89"/>
       <c r="Q21" s="76" t="s">
         <v>20</v>
       </c>
@@ -2783,17 +2797,17 @@
       <c r="B22" s="29"/>
       <c r="C22" s="39"/>
       <c r="D22" s="62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
+        <v>40</v>
+      </c>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="93"/>
       <c r="L22" s="52"/>
       <c r="M22" s="52"/>
       <c r="N22" s="52"/>
@@ -2809,17 +2823,17 @@
       <c r="B23" s="29"/>
       <c r="C23" s="39"/>
       <c r="D23" s="64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="88"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="91"/>
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
       <c r="N23" s="52"/>
@@ -2835,7 +2849,7 @@
       <c r="B24" s="29"/>
       <c r="C24" s="39"/>
       <c r="D24" s="62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="59" t="s">
         <v>33</v>
@@ -2854,14 +2868,14 @@
       <c r="R24" s="51"/>
       <c r="S24" s="51"/>
       <c r="T24" s="51"/>
-      <c r="U24" s="78"/>
+      <c r="U24" s="77"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="47"/>
       <c r="B25" s="29"/>
       <c r="C25" s="39"/>
-      <c r="D25" s="93" t="s">
-        <v>45</v>
+      <c r="D25" s="95" t="s">
+        <v>46</v>
       </c>
       <c r="E25" s="59" t="s">
         <v>33</v>
@@ -2869,14 +2883,14 @@
       <c r="F25" s="54"/>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
-      <c r="I25" s="78"/>
+      <c r="I25" s="77"/>
       <c r="J25" s="50"/>
       <c r="K25" s="51"/>
       <c r="L25" s="51"/>
       <c r="M25" s="51"/>
       <c r="N25" s="51"/>
       <c r="O25" s="51"/>
-      <c r="P25" s="78"/>
+      <c r="P25" s="77"/>
       <c r="R25" s="52"/>
       <c r="S25" s="52"/>
       <c r="T25" s="52"/>
@@ -2886,8 +2900,8 @@
       <c r="A26" s="47"/>
       <c r="B26" s="29"/>
       <c r="C26" s="39"/>
-      <c r="D26" s="94" t="s">
-        <v>46</v>
+      <c r="D26" s="96" t="s">
+        <v>47</v>
       </c>
       <c r="E26" s="59" t="s">
         <v>33</v>
@@ -2901,8 +2915,8 @@
       <c r="L26" s="51"/>
       <c r="M26" s="52"/>
       <c r="N26" s="52"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="92"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="94"/>
       <c r="R26" s="52"/>
       <c r="S26" s="52"/>
       <c r="T26" s="52"/>
@@ -2912,8 +2926,8 @@
       <c r="A27" s="47"/>
       <c r="B27" s="29"/>
       <c r="C27" s="39"/>
-      <c r="D27" s="93" t="s">
-        <v>47</v>
+      <c r="D27" s="95" t="s">
+        <v>48</v>
       </c>
       <c r="E27" s="59" t="s">
         <v>33</v>
@@ -2928,18 +2942,18 @@
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
       <c r="O27" s="51"/>
-      <c r="P27" s="78"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
+      <c r="P27" s="77"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="91"/>
       <c r="T27" s="52"/>
       <c r="U27" s="53"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="63"/>
       <c r="B28" s="22"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80" t="s">
-        <v>48</v>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83" t="s">
+        <v>49</v>
       </c>
       <c r="E28" s="65" t="s">
         <v>33</v>
@@ -2953,11 +2967,11 @@
       <c r="L28" s="67"/>
       <c r="M28" s="67"/>
       <c r="N28" s="67"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="96"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="98"/>
       <c r="Q28" s="25"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="97"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
       <c r="T28" s="67"/>
       <c r="U28" s="68"/>
     </row>
@@ -2966,25 +2980,25 @@
         <v>4.0</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="98" t="s">
         <v>50</v>
       </c>
+      <c r="C29" s="100" t="s">
+        <v>51</v>
+      </c>
       <c r="D29" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="85" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="75"/>
       <c r="G29" s="73"/>
-      <c r="H29" s="99" t="s">
-        <v>52</v>
+      <c r="H29" s="101" t="s">
+        <v>53</v>
       </c>
       <c r="I29" s="74"/>
-      <c r="J29" s="100" t="s">
-        <v>53</v>
+      <c r="J29" s="102" t="s">
+        <v>54</v>
       </c>
       <c r="K29" s="73"/>
       <c r="L29" s="73"/>
@@ -3005,7 +3019,7 @@
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E30" s="59" t="s">
         <v>25</v>
@@ -3030,11 +3044,11 @@
       <c r="A31" s="47"/>
       <c r="B31" s="29"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="101" t="s">
-        <v>55</v>
+      <c r="D31" s="103" t="s">
+        <v>56</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" s="54"/>
       <c r="G31" s="52"/>
@@ -3048,21 +3062,21 @@
       <c r="O31" s="52"/>
       <c r="P31" s="53"/>
       <c r="R31" s="52"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="87"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="90"/>
       <c r="U31" s="53"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="29"/>
-      <c r="C32" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="101" t="s">
+      <c r="C32" s="104" t="s">
         <v>57</v>
       </c>
+      <c r="D32" s="103" t="s">
+        <v>58</v>
+      </c>
       <c r="E32" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="52"/>
@@ -3075,7 +3089,7 @@
       <c r="N32" s="52"/>
       <c r="O32" s="52"/>
       <c r="P32" s="53"/>
-      <c r="R32" s="91"/>
+      <c r="R32" s="93"/>
       <c r="S32" s="52"/>
       <c r="T32" s="52"/>
       <c r="U32" s="53"/>
@@ -3084,8 +3098,8 @@
       <c r="A33" s="47"/>
       <c r="B33" s="29"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="103" t="s">
-        <v>58</v>
+      <c r="D33" s="105" t="s">
+        <v>59</v>
       </c>
       <c r="E33" s="59" t="s">
         <v>33</v>
@@ -3102,20 +3116,20 @@
       <c r="O33" s="52"/>
       <c r="P33" s="53"/>
       <c r="R33" s="52"/>
-      <c r="S33" s="88"/>
+      <c r="S33" s="91"/>
       <c r="T33" s="51"/>
       <c r="U33" s="53"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="29"/>
-      <c r="C34" s="102" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="104" t="s">
+      <c r="C34" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="77" t="s">
+      <c r="D34" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="78" t="s">
         <v>30</v>
       </c>
       <c r="F34" s="54"/>
@@ -3131,15 +3145,15 @@
       <c r="P34" s="53"/>
       <c r="R34" s="52"/>
       <c r="S34" s="52"/>
-      <c r="T34" s="105"/>
+      <c r="T34" s="106"/>
       <c r="U34" s="53"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="47"/>
       <c r="B35" s="29"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="103" t="s">
-        <v>61</v>
+      <c r="D35" s="105" t="s">
+        <v>62</v>
       </c>
       <c r="E35" s="59" t="s">
         <v>30</v>
@@ -3158,16 +3172,16 @@
       <c r="R35" s="52"/>
       <c r="S35" s="52"/>
       <c r="T35" s="52"/>
-      <c r="U35" s="106"/>
+      <c r="U35" s="107"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="63"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="107" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="108" t="s">
+      <c r="C36" s="108" t="s">
         <v>63</v>
+      </c>
+      <c r="D36" s="109" t="s">
+        <v>64</v>
       </c>
       <c r="E36" s="65" t="s">
         <v>30</v>
@@ -3187,12 +3201,12 @@
       <c r="R36" s="67"/>
       <c r="S36" s="67"/>
       <c r="T36" s="67"/>
-      <c r="U36" s="109"/>
+      <c r="U36" s="110"/>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="D39" s="110"/>
+      <c r="D39" s="111"/>
     </row>
     <row r="40" ht="15.75" customHeight="1"/>
     <row r="41" ht="15.75" customHeight="1"/>

--- a/팀PJ_WBS/토이스토리 PJ_멘토링 2차/토이스토리 PJ WBS.xlsx
+++ b/팀PJ_WBS/토이스토리 PJ_멘토링 2차/토이스토리 PJ WBS.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>PROJECT TIMELINE TEMPLATE</t>
   </si>
   <si>
-    <t>일정 마감 날짜에만 라벨 표시할 것</t>
-  </si>
-  <si>
     <t>PROJECT TITLE</t>
   </si>
   <si>
@@ -67,47 +64,63 @@
     </r>
     <r>
       <rPr>
-        <rFont val="돋움"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
+      <t>주차(진척도)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Corbel"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
       <t>주차</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Corbel"/>
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
+      <t>(진척도)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Corbel"/>
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
       <t>주차</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Corbel"/>
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>주차</t>
+      <t>(진척도)</t>
     </r>
   </si>
   <si>
@@ -1367,7 +1380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border/>
     <border>
       <left/>
@@ -1555,6 +1568,28 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1563,7 +1598,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -1574,10 +1609,7 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -1710,7 +1742,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="122">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1782,7 +1814,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1823,105 +1855,147 @@
     <xf borderId="23" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="24" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="4" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="25" fillId="4" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="26" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="24" fillId="6" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="25" fillId="6" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="6" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="26" fillId="6" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="23" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="25" fillId="7" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="26" fillId="7" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="7" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="27" fillId="7" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="23" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="30" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="31" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="31" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="4" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="34" fillId="4" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="35" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="33" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="34" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="4" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="27" fillId="4" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="23" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="24" fillId="8" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="27" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="4" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="28" fillId="8" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="23" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="24" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="28" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="33" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="9" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="34" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="35" fillId="9" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="28" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="9" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="28" fillId="9" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="26" fillId="9" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="27" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="31" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="32" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="4" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="29" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="2" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="31" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="36" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="6" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="38" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="26" fillId="9" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="10" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="26" fillId="10" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="10" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="27" fillId="10" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="30" fillId="10" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="10" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -2167,9 +2241,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -2199,19 +2271,19 @@
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
       <c r="D2" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="9"/>
       <c r="I2" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -2220,7 +2292,7 @@
       <c r="N2" s="12"/>
       <c r="O2" s="9"/>
       <c r="P2" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -2263,19 +2335,19 @@
     </row>
     <row r="4" ht="36.0" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="22"/>
       <c r="I4" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -2284,7 +2356,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="22"/>
       <c r="P4" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
@@ -2299,24 +2371,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="30"/>
       <c r="D5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="F5" s="32" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>13</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="22"/>
       <c r="J5" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -2325,7 +2397,7 @@
       <c r="O5" s="25"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R5" s="25"/>
       <c r="S5" s="25"/>
@@ -2360,7 +2432,7 @@
         <v>45413.0</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N6" s="36"/>
       <c r="O6" s="34">
@@ -2390,14 +2462,14 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="43"/>
@@ -2411,7 +2483,7 @@
       <c r="O7" s="43"/>
       <c r="P7" s="44"/>
       <c r="Q7" s="46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R7" s="43"/>
       <c r="S7" s="43"/>
@@ -2423,13 +2495,17 @@
       <c r="B8" s="29"/>
       <c r="C8" s="39"/>
       <c r="D8" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="F8" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="51">
+        <v>1.0</v>
+      </c>
       <c r="H8" s="52"/>
       <c r="I8" s="53"/>
       <c r="J8" s="54"/>
@@ -2450,10 +2526,10 @@
       <c r="C9" s="39"/>
       <c r="D9" s="29"/>
       <c r="E9" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="52"/>
       <c r="I9" s="53"/>
       <c r="J9" s="54"/>
@@ -2472,15 +2548,15 @@
       <c r="A10" s="47"/>
       <c r="B10" s="29"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="57"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="58"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="53"/>
       <c r="J10" s="54"/>
       <c r="K10" s="52"/>
@@ -2489,7 +2565,7 @@
       <c r="N10" s="52"/>
       <c r="O10" s="52"/>
       <c r="P10" s="53"/>
-      <c r="R10" s="58"/>
+      <c r="R10" s="60"/>
       <c r="S10" s="52"/>
       <c r="T10" s="52"/>
       <c r="U10" s="53"/>
@@ -2499,10 +2575,10 @@
       <c r="B11" s="29"/>
       <c r="C11" s="39"/>
       <c r="D11" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="61" t="s">
         <v>26</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>27</v>
       </c>
       <c r="F11" s="54"/>
       <c r="G11" s="52"/>
@@ -2515,26 +2591,34 @@
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
       <c r="P11" s="53"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="61"/>
+      <c r="R11" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="S11" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="62">
+        <v>0.75</v>
+      </c>
+      <c r="U11" s="63">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="47"/>
       <c r="B12" s="29"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>25</v>
+      <c r="D12" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="F12" s="54"/>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
       <c r="I12" s="53"/>
-      <c r="J12" s="57"/>
+      <c r="J12" s="59"/>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
       <c r="M12" s="52"/>
@@ -2547,78 +2631,86 @@
       <c r="U12" s="53"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="63"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="22"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
       <c r="Q13" s="25"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="68"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="70"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="37">
         <v>2.0</v>
       </c>
       <c r="B14" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="69" t="s">
+      <c r="E14" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="F14" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="74"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="76"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="29"/>
       <c r="C15" s="39"/>
       <c r="D15" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>32</v>
       </c>
       <c r="F15" s="54"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="G15" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="79">
+        <v>1.0</v>
+      </c>
       <c r="I15" s="53"/>
       <c r="J15" s="54"/>
       <c r="K15" s="52"/>
@@ -2637,15 +2729,19 @@
       <c r="B16" s="29"/>
       <c r="C16" s="39"/>
       <c r="D16" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>32</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="52"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="77"/>
+      <c r="H16" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="80">
+        <v>1.0</v>
+      </c>
       <c r="J16" s="54"/>
       <c r="K16" s="52"/>
       <c r="L16" s="52"/>
@@ -2662,16 +2758,16 @@
       <c r="A17" s="47"/>
       <c r="B17" s="29"/>
       <c r="C17" s="39"/>
-      <c r="D17" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>33</v>
+      <c r="D17" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>32</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
-      <c r="I17" s="77"/>
+      <c r="I17" s="82"/>
       <c r="J17" s="54"/>
       <c r="K17" s="52"/>
       <c r="L17" s="52"/>
@@ -2688,17 +2784,21 @@
       <c r="A18" s="47"/>
       <c r="B18" s="29"/>
       <c r="C18" s="39"/>
-      <c r="D18" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>33</v>
+      <c r="D18" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>32</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="50"/>
+      <c r="I18" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="83">
+        <v>1.0</v>
+      </c>
       <c r="K18" s="52"/>
       <c r="L18" s="52"/>
       <c r="M18" s="52"/>
@@ -2707,20 +2807,20 @@
       <c r="P18" s="53"/>
       <c r="R18" s="52"/>
       <c r="S18" s="52"/>
-      <c r="T18" s="79"/>
+      <c r="T18" s="84"/>
       <c r="U18" s="53"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="29"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="81"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
       <c r="I19" s="53"/>
@@ -2737,77 +2837,89 @@
       <c r="U19" s="53"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="63"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="68"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="70"/>
       <c r="Q20" s="25"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="68"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="70"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="37">
         <v>3.0</v>
       </c>
       <c r="B21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="86"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="74"/>
+      <c r="E21" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="91"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="93">
+        <v>0.3</v>
+      </c>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="93">
+        <v>0.6</v>
+      </c>
+      <c r="P21" s="95">
+        <v>1.0</v>
+      </c>
+      <c r="Q21" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="76"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="29"/>
       <c r="C22" s="39"/>
-      <c r="D22" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="93"/>
+      <c r="D22" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="98">
+        <v>0.3</v>
+      </c>
+      <c r="J22" s="99">
+        <v>0.6</v>
+      </c>
+      <c r="K22" s="100">
+        <v>1.0</v>
+      </c>
       <c r="L22" s="52"/>
       <c r="M22" s="52"/>
       <c r="N22" s="52"/>
@@ -2822,18 +2934,22 @@
       <c r="A23" s="47"/>
       <c r="B23" s="29"/>
       <c r="C23" s="39"/>
-      <c r="D23" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="90"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
+      <c r="D23" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="96"/>
+      <c r="G23" s="100">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="100">
+        <v>1.0</v>
+      </c>
+      <c r="I23" s="101"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="97"/>
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
       <c r="N23" s="52"/>
@@ -2848,11 +2964,11 @@
       <c r="A24" s="47"/>
       <c r="B24" s="29"/>
       <c r="C24" s="39"/>
-      <c r="D24" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>33</v>
+      <c r="D24" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>32</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="52"/>
@@ -2865,32 +2981,52 @@
       <c r="N24" s="52"/>
       <c r="O24" s="52"/>
       <c r="P24" s="53"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="77"/>
+      <c r="R24" s="79">
+        <v>0.25</v>
+      </c>
+      <c r="S24" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="79">
+        <v>0.75</v>
+      </c>
+      <c r="U24" s="80">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="47"/>
       <c r="B25" s="29"/>
       <c r="C25" s="39"/>
-      <c r="D25" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>33</v>
+      <c r="D25" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>32</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="77"/>
+      <c r="I25" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="J25" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="K25" s="79">
+        <v>0.45</v>
+      </c>
+      <c r="L25" s="79">
+        <v>0.6</v>
+      </c>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="P25" s="80">
+        <v>1.0</v>
+      </c>
       <c r="R25" s="52"/>
       <c r="S25" s="52"/>
       <c r="T25" s="52"/>
@@ -2900,23 +3036,27 @@
       <c r="A26" s="47"/>
       <c r="B26" s="29"/>
       <c r="C26" s="39"/>
-      <c r="D26" s="96" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="59" t="s">
-        <v>33</v>
+      <c r="D26" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>32</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
       <c r="I26" s="53"/>
       <c r="J26" s="54"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
+      <c r="K26" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="79">
+        <v>1.0</v>
+      </c>
       <c r="M26" s="52"/>
       <c r="N26" s="52"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="94"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="101"/>
       <c r="R26" s="52"/>
       <c r="S26" s="52"/>
       <c r="T26" s="52"/>
@@ -2926,11 +3066,11 @@
       <c r="A27" s="47"/>
       <c r="B27" s="29"/>
       <c r="C27" s="39"/>
-      <c r="D27" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>33</v>
+      <c r="D27" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>32</v>
       </c>
       <c r="F27" s="54"/>
       <c r="G27" s="52"/>
@@ -2941,88 +3081,96 @@
       <c r="L27" s="52"/>
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="77"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91"/>
+      <c r="O27" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="P27" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
       <c r="T27" s="52"/>
       <c r="U27" s="53"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="63"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="22"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="98"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="106"/>
       <c r="Q28" s="25"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="68"/>
+      <c r="R28" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="S28" s="107">
+        <v>1.0</v>
+      </c>
+      <c r="T28" s="69"/>
+      <c r="U28" s="70"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="37">
         <v>4.0</v>
       </c>
       <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="100" t="s">
+      <c r="D29" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="E29" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="77"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="101" t="s">
+      <c r="I29" s="76"/>
+      <c r="J29" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="74"/>
-      <c r="J29" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="74"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="76"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="52"/>
@@ -3036,19 +3184,23 @@
       <c r="O30" s="52"/>
       <c r="P30" s="53"/>
       <c r="R30" s="52"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
+      <c r="S30" s="111">
+        <v>0.5</v>
+      </c>
+      <c r="T30" s="111">
+        <v>1.0</v>
+      </c>
       <c r="U30" s="53"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="47"/>
       <c r="B31" s="29"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="103" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="59" t="s">
-        <v>40</v>
+      <c r="D31" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>39</v>
       </c>
       <c r="F31" s="54"/>
       <c r="G31" s="52"/>
@@ -3062,21 +3214,21 @@
       <c r="O31" s="52"/>
       <c r="P31" s="53"/>
       <c r="R31" s="52"/>
-      <c r="S31" s="81"/>
-      <c r="T31" s="90"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="96"/>
       <c r="U31" s="53"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="29"/>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="103" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>40</v>
+      <c r="E32" s="61" t="s">
+        <v>39</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="52"/>
@@ -3089,7 +3241,7 @@
       <c r="N32" s="52"/>
       <c r="O32" s="52"/>
       <c r="P32" s="53"/>
-      <c r="R32" s="93"/>
+      <c r="R32" s="114"/>
       <c r="S32" s="52"/>
       <c r="T32" s="52"/>
       <c r="U32" s="53"/>
@@ -3098,11 +3250,11 @@
       <c r="A33" s="47"/>
       <c r="B33" s="29"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>33</v>
+      <c r="D33" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>32</v>
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="52"/>
@@ -3116,21 +3268,21 @@
       <c r="O33" s="52"/>
       <c r="P33" s="53"/>
       <c r="R33" s="52"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="51"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="103"/>
       <c r="U33" s="53"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="29"/>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>30</v>
+      <c r="E34" s="81" t="s">
+        <v>29</v>
       </c>
       <c r="F34" s="54"/>
       <c r="G34" s="52"/>
@@ -3145,18 +3297,18 @@
       <c r="P34" s="53"/>
       <c r="R34" s="52"/>
       <c r="S34" s="52"/>
-      <c r="T34" s="106"/>
+      <c r="T34" s="116"/>
       <c r="U34" s="53"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="47"/>
       <c r="B35" s="29"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="59" t="s">
-        <v>30</v>
+      <c r="D35" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>29</v>
       </c>
       <c r="F35" s="54"/>
       <c r="G35" s="52"/>
@@ -3172,41 +3324,41 @@
       <c r="R35" s="52"/>
       <c r="S35" s="52"/>
       <c r="T35" s="52"/>
-      <c r="U35" s="107"/>
+      <c r="U35" s="117"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="63"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="68"/>
+      <c r="E36" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="68"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="70"/>
       <c r="Q36" s="25"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="110"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="69"/>
+      <c r="U36" s="120"/>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="D39" s="111"/>
+      <c r="D39" s="121"/>
     </row>
     <row r="40" ht="15.75" customHeight="1"/>
     <row r="41" ht="15.75" customHeight="1"/>
@@ -4170,7 +4322,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="35">
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:U4"/>
     <mergeCell ref="J5:P5"/>
@@ -4186,14 +4338,6 @@
     <mergeCell ref="Q14:Q20"/>
     <mergeCell ref="Q21:Q28"/>
     <mergeCell ref="Q29:Q36"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="Q7:Q13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C29:C31"/>
@@ -4204,6 +4348,16 @@
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="B29:B36"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="Q7:Q13"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
